--- a/outputs-r202/f__CAG-826.xlsx
+++ b/outputs-r202/f__CAG-826.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,6 +540,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -609,6 +614,11 @@
           <t>g__UBA3207</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>g__UBA3207</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -678,6 +688,11 @@
           <t>g__UBA2450</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>g__UBA2450</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -747,6 +762,11 @@
           <t>g__RUG131</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>g__RUG131</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -816,6 +836,11 @@
           <t>g__UBA733</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>g__UBA733</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -885,6 +910,11 @@
           <t>g__UBA733</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>g__UBA733</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -954,6 +984,11 @@
           <t>g__UBA733</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>g__UBA733</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1023,6 +1058,11 @@
           <t>g__UBA733</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>g__UBA733</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1092,6 +1132,11 @@
           <t>g__UBA4951</t>
         </is>
       </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>g__UBA4951</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1161,6 +1206,11 @@
           <t>g__UBA4951</t>
         </is>
       </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>g__UBA4951</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1226,6 +1276,11 @@
         <v>0.991685605439773</v>
       </c>
       <c r="U11" t="inlineStr">
+        <is>
+          <t>g__UBA4951</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>g__UBA4951</t>
         </is>

--- a/outputs-r202/f__CAG-826.xlsx
+++ b/outputs-r202/f__CAG-826.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,516 +771,220 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG187.fasta</t>
+          <t>RUG610.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000549581726020635</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000549581726020635</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0005495817260206346</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0005495817260206354</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005495817260206354</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0005495817260206352</v>
+        <v>1.456387739930771e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0005495817260206352</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0005495817260206352</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0005495817260206352</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>0.000549581726020631</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005495817260206313</v>
+        <v>0.0002388227804365032</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0005495817260206313</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0005495817260206313</v>
+        <v>0.9990119534390781</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0005495817260206313</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0005495817260206282</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9906571106576492</v>
+        <v>0.0007490781414005802</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0005495817260206284</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0005495817260206277</v>
+        <v>2.220324521160553e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9906571106576492</v>
+        <v>0.9990119534390781</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>g__UBA733</t>
+          <t>g__UBA4951</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>g__UBA733</t>
+          <t>g__UBA4951</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG266.fasta</t>
+          <t>RUG696.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005230053648757437</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005230053648757437</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005230053648757435</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005230053648757437</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005230053648757437</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0005230053648757435</v>
+        <v>3.58249155989613e-12</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0005230053648757435</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005230053648757435</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0005230053648757435</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0005230053648757388</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005230053648757388</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0005230053648757388</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0005230053648757388</v>
+        <v>0.9999292231195925</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0005230053648757388</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0005230053648757365</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9911089087971124</v>
+        <v>7.077687649200529e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0005230053648757365</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0005230053648757351</v>
+        <v>2.220437320171581e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9911089087971124</v>
+        <v>0.9999292231195925</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>g__UBA733</t>
+          <t>g__UBA4951</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>g__UBA733</t>
+          <t>g__UBA4951</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG275.fasta</t>
+          <t>RUG698.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.802451306019307e-10</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.606990358325652e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.994947808337638</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0.005051530682770177</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.220091004099764e-14</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0.994947808337638</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>g__UBA733</t>
+          <t>g__UBA4951</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
-        <is>
-          <t>g__UBA733</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RUG551.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0005239259326195761</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0005239259326195761</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0005239259326195761</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0005239259326195761</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0005239259326195761</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0005239259326195764</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0005239259326195767</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0005239259326195767</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0005239259326195767</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.000523925932619574</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0005239259326195741</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0005239259326195741</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0005239259326195741</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.0005239259326195741</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.0005239259326195716</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.9910932591454672</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.0005239259326195716</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.0005239259326195695</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.9910932591454672</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>g__UBA733</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>g__UBA733</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RUG610.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.456387739930771e-07</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0002388227804365032</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.9990119534390781</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.0007490781414005802</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.220324521160553e-14</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.9990119534390781</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>g__UBA4951</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>g__UBA4951</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RUG696.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.58249155989613e-12</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.9999292231195925</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7.077687649200529e-05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.220437320171581e-14</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.9999292231195925</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>g__UBA4951</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>g__UBA4951</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG698.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.802451306019307e-10</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6.606990358325652e-07</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.994947808337638</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.005051530682770177</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.220091004099764e-14</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.994947808337638</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>g__UBA4951</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
         <is>
           <t>g__UBA4951</t>
         </is>
